--- a/black-white.xlsx
+++ b/black-white.xlsx
@@ -14,123 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>belum dibuat</t>
+  </si>
+  <si>
+    <t>daftar cek</t>
+  </si>
+  <si>
+    <t>sudah dibuat, belum dites</t>
+  </si>
+  <si>
+    <t>perbaiki nama orderan</t>
+  </si>
+  <si>
+    <t>hilangkan object yang tidak diperlukan</t>
+  </si>
+  <si>
+    <t>state default ketika membuat kitchen screen</t>
+  </si>
+  <si>
+    <t>waktu server ketika state di kitchen order berubah</t>
+  </si>
+  <si>
+    <t>alasan pembatalan pesanan oleh chef</t>
+  </si>
+  <si>
+    <t>pemilihan chef yang menangani orderan</t>
+  </si>
+  <si>
+    <t>warna kanban untuk masing-masing state</t>
+  </si>
+  <si>
+    <t>ketika statenya void, maka qty cancel berubah</t>
+  </si>
+  <si>
+    <t>web auto refresh</t>
+  </si>
+  <si>
+    <t>hubungan antara pos order dan kitchen order</t>
+  </si>
+  <si>
+    <t>order counts</t>
+  </si>
+  <si>
+    <t>ubah tampilan untuk order yang di batalkan sebagian</t>
+  </si>
+  <si>
+    <t>note untuk tiap order (ketika ada note dari kasir/waiter)</t>
+  </si>
+  <si>
+    <t>state order ketika viod</t>
+  </si>
+  <si>
+    <t>kitchen order hanya bisa di buat lewat pos</t>
+  </si>
+  <si>
+    <t>sudah dibuat, tapi error</t>
+  </si>
   <si>
     <t>ketika orderline bertambah, state order dan kitchen state order menjadi new</t>
   </si>
   <si>
-    <t>belum dibuat</t>
-  </si>
-  <si>
     <t>ketika tombol order ditekan, state order menjadi ordered</t>
   </si>
   <si>
-    <t>sudah dibuat, belum dites</t>
-  </si>
-  <si>
-    <t>ketika orderline dicancel seluruhnya (semua qty), state order berubah menjadi cancel, dan kitchen state order berubah menjadi void</t>
-  </si>
-  <si>
-    <t>ketika orderline dicancel sebagian, membuat kitchen order baru sesuai dengan qty yang di cancel dan berstatus kitchen state order void</t>
-  </si>
-  <si>
-    <t>sudah dibuat, tapi error</t>
-  </si>
-  <si>
-    <t>ketika tombol order ditekan, membuat kitchen order</t>
+    <t>sync antara kasir dan waiter</t>
+  </si>
+  <si>
+    <t>orderline dicancel sebagian</t>
+  </si>
+  <si>
+    <t>orderline dicancel seluruhnya</t>
+  </si>
+  <si>
+    <t>orderline dicancel menggunakan tombol -</t>
+  </si>
+  <si>
+    <t>tombol order ditekan membuat kitchen order</t>
   </si>
   <si>
     <t>aman</t>
   </si>
   <si>
-    <t>ketika tombol bill ditekan, maka status order menjadi close, tidak bisa mengubah order</t>
-  </si>
-  <si>
-    <t>menambah orderline</t>
-  </si>
-  <si>
-    <t>menambah qty orderline</t>
-  </si>
-  <si>
-    <t>mengurangi qty orderline</t>
+    <t>kitchen state order saat longpolling</t>
+  </si>
+  <si>
+    <t>sync state close order</t>
+  </si>
+  <si>
+    <t>sync kitchen state order</t>
   </si>
   <si>
     <t>tanda tanya</t>
   </si>
   <si>
-    <t>ketika tombol open ditekan, maka status order menjadi open dan dapat menambah orderline lagi</t>
-  </si>
-  <si>
-    <t>﻿</t>
-  </si>
-  <si>
-    <t>ketika tombol - ditekan, mengcancel seluruh orderline</t>
-  </si>
-  <si>
-    <t>order kosong</t>
-  </si>
-  <si>
-    <t>order ada, state new</t>
-  </si>
-  <si>
-    <t>order ada, state ordered</t>
-  </si>
-  <si>
-    <t>longpolling kitchen state order</t>
-  </si>
-  <si>
-    <t>longpolling state close order</t>
-  </si>
-  <si>
-    <t>sync antara kasir dan waiter</t>
-  </si>
-  <si>
-    <t>Kitchen Screen</t>
-  </si>
-  <si>
-    <t>kitchen state order saat longpolling</t>
-  </si>
-  <si>
-    <t>close dan open order</t>
-  </si>
-  <si>
-    <t>ketika orderline sudah ada, namun qty bertambah</t>
-  </si>
-  <si>
-    <t>order ada, sudah ada qty yang tercancel</t>
-  </si>
-  <si>
-    <t>waktu served</t>
-  </si>
-  <si>
-    <t>open order hanya bisa oleh kasir</t>
-  </si>
-  <si>
-    <t>bill harus bisa di tekan oleh waiter (security)</t>
-  </si>
-  <si>
-    <t>state order ketika viod</t>
-  </si>
-  <si>
-    <t>note untuk tiap order (ketika ada note dari kasir/waiter atau chef membatalkan pesanan)</t>
+    <t>tombol bill ditekan, status dari order akan menjadi close</t>
+  </si>
+  <si>
+    <t>yang hanya bisa membuka order adalah kasir</t>
+  </si>
+  <si>
+    <t>qty orderline</t>
+  </si>
+  <si>
+    <t>orderline dan kitchen order sudah ada namun qty bertambah</t>
   </si>
   <si>
     <t>waktu untuk orderan all you can eat</t>
-  </si>
-  <si>
-    <t>pemilihan chef untuk orderan</t>
-  </si>
-  <si>
-    <t>auto refresh kitchen screen</t>
-  </si>
-  <si>
-    <t>order counts</t>
-  </si>
-  <si>
-    <t>ubah tampilan untuk order yang di batalkan sebagian</t>
-  </si>
-  <si>
-    <t>description order masih kurang rapi</t>
   </si>
 </sst>
 </file>
@@ -138,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,9 +149,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,105 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +194,104 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -311,6 +302,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,49 +332,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,19 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,97 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,17 +537,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -569,21 +549,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +569,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -618,17 +598,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,112 +637,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,69 +757,75 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,7 +913,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="6096000"/>
+          <a:off x="785495" y="6286500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1191,192 +1188,279 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="11" width="9" style="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="75" spans="1:6">
+    <row r="1" ht="30" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="3"/>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="60" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="105" spans="1:18">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="120" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" ht="120" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
     </row>
-    <row r="4" ht="45" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="11" t="s">
-        <v>8</v>
-      </c>
+    <row r="4" ht="60" spans="1:18">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
     </row>
-    <row r="5" ht="90" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" ht="90" spans="1:18">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
     </row>
-    <row r="6" ht="90" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" ht="90" spans="1:18">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
-    <row r="7" ht="60" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="7" ht="60" spans="1:18">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
-    <row r="8" ht="30" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:4">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
     </row>
-    <row r="9" ht="60" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
+    <row r="9" spans="1:4">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
-    <row r="10" ht="45" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:4">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
     </row>
-    <row r="12" ht="45" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:4">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
-    <row r="13" ht="90" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="1:4">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
-    <row r="14" ht="90" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
+    <row r="14" spans="1:4">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId2" display="﻿"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="C1:R1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
